--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bmp2-Bmpr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bmp2-Bmpr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,22 +531,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.55635</v>
+        <v>1.729584333333333</v>
       </c>
       <c r="H2">
-        <v>1.66905</v>
+        <v>5.188753</v>
       </c>
       <c r="I2">
-        <v>0.1200566932586554</v>
+        <v>0.2476387648475193</v>
       </c>
       <c r="J2">
-        <v>0.1200566932586554</v>
+        <v>0.2476387648475193</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,22 +561,22 @@
         <v>10.530571</v>
       </c>
       <c r="O2">
-        <v>0.8478537661184122</v>
+        <v>0.7927501397588634</v>
       </c>
       <c r="P2">
-        <v>0.8478537661184122</v>
+        <v>0.7927501397588635</v>
       </c>
       <c r="Q2">
-        <v>1.95289439195</v>
+        <v>6.071170207551445</v>
       </c>
       <c r="R2">
-        <v>17.57604952755</v>
+        <v>54.64053186796301</v>
       </c>
       <c r="S2">
-        <v>0.1017905195270739</v>
+        <v>0.1963156654425832</v>
       </c>
       <c r="T2">
-        <v>0.1017905195270739</v>
+        <v>0.1963156654425832</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.55635</v>
+        <v>1.729584333333333</v>
       </c>
       <c r="H3">
-        <v>1.66905</v>
+        <v>5.188753</v>
       </c>
       <c r="I3">
-        <v>0.1200566932586554</v>
+        <v>0.2476387648475193</v>
       </c>
       <c r="J3">
-        <v>0.1200566932586554</v>
+        <v>0.2476387648475193</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,33 +617,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.629899</v>
+        <v>0.8869683333333332</v>
       </c>
       <c r="N3">
-        <v>1.889697</v>
+        <v>2.660905</v>
       </c>
       <c r="O3">
-        <v>0.1521462338815877</v>
+        <v>0.2003151406163121</v>
       </c>
       <c r="P3">
-        <v>0.1521462338815877</v>
+        <v>0.2003151406163121</v>
       </c>
       <c r="Q3">
-        <v>0.35044430865</v>
+        <v>1.534086533496111</v>
       </c>
       <c r="R3">
-        <v>3.15399877785</v>
+        <v>13.806778801465</v>
       </c>
       <c r="S3">
-        <v>0.01826617373158141</v>
+        <v>0.04960579400248067</v>
       </c>
       <c r="T3">
-        <v>0.01826617373158142</v>
+        <v>0.04960579400248068</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.611936333333333</v>
+        <v>1.729584333333333</v>
       </c>
       <c r="H4">
-        <v>4.835809</v>
+        <v>5.188753</v>
       </c>
       <c r="I4">
-        <v>0.3478453238491627</v>
+        <v>0.2476387648475193</v>
       </c>
       <c r="J4">
-        <v>0.3478453238491627</v>
+        <v>0.2476387648475193</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>3.510190333333334</v>
+        <v>0.030706</v>
       </c>
       <c r="N4">
-        <v>10.530571</v>
+        <v>0.09211800000000001</v>
       </c>
       <c r="O4">
-        <v>0.8478537661184122</v>
+        <v>0.006934719624824425</v>
       </c>
       <c r="P4">
-        <v>0.8478537661184122</v>
+        <v>0.006934719624824427</v>
       </c>
       <c r="Q4">
-        <v>5.658203335215445</v>
+        <v>0.05310861653933334</v>
       </c>
       <c r="R4">
-        <v>50.923830016939</v>
+        <v>0.4779775488540001</v>
       </c>
       <c r="S4">
-        <v>0.2949219678521913</v>
+        <v>0.001717305402455373</v>
       </c>
       <c r="T4">
-        <v>0.2949219678521913</v>
+        <v>0.001717305402455373</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,10 +729,10 @@
         <v>4.835809</v>
       </c>
       <c r="I5">
-        <v>0.3478453238491627</v>
+        <v>0.2307941364328804</v>
       </c>
       <c r="J5">
-        <v>0.3478453238491627</v>
+        <v>0.2307941364328804</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,33 +741,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.629899</v>
+        <v>3.510190333333334</v>
       </c>
       <c r="N5">
-        <v>1.889697</v>
+        <v>10.530571</v>
       </c>
       <c r="O5">
-        <v>0.1521462338815877</v>
+        <v>0.7927501397588634</v>
       </c>
       <c r="P5">
-        <v>0.1521462338815877</v>
+        <v>0.7927501397588635</v>
       </c>
       <c r="Q5">
-        <v>1.015357084430333</v>
+        <v>5.658203335215445</v>
       </c>
       <c r="R5">
-        <v>9.138213759873</v>
+        <v>50.923830016939</v>
       </c>
       <c r="S5">
-        <v>0.05292335599697132</v>
+        <v>0.1829620839126921</v>
       </c>
       <c r="T5">
-        <v>0.05292335599697133</v>
+        <v>0.1829620839126921</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.086394</v>
+        <v>1.611936333333333</v>
       </c>
       <c r="H6">
-        <v>6.259182</v>
+        <v>4.835809</v>
       </c>
       <c r="I6">
-        <v>0.4502301868872095</v>
+        <v>0.2307941364328804</v>
       </c>
       <c r="J6">
-        <v>0.4502301868872095</v>
+        <v>0.2307941364328804</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,33 +803,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.510190333333334</v>
+        <v>0.8869683333333332</v>
       </c>
       <c r="N6">
-        <v>10.530571</v>
+        <v>2.660905</v>
       </c>
       <c r="O6">
-        <v>0.8478537661184122</v>
+        <v>0.2003151406163121</v>
       </c>
       <c r="P6">
-        <v>0.8478537661184122</v>
+        <v>0.2003151406163121</v>
       </c>
       <c r="Q6">
-        <v>7.323640050324666</v>
+        <v>1.429736483016111</v>
       </c>
       <c r="R6">
-        <v>65.912760452922</v>
+        <v>12.867628347145</v>
       </c>
       <c r="S6">
-        <v>0.3817293595725171</v>
+        <v>0.04623155989297275</v>
       </c>
       <c r="T6">
-        <v>0.3817293595725171</v>
+        <v>0.04623155989297276</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,51 +847,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.086394</v>
+        <v>1.611936333333333</v>
       </c>
       <c r="H7">
-        <v>6.259182</v>
+        <v>4.835809</v>
       </c>
       <c r="I7">
-        <v>0.4502301868872095</v>
+        <v>0.2307941364328804</v>
       </c>
       <c r="J7">
-        <v>0.4502301868872095</v>
+        <v>0.2307941364328804</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.629899</v>
+        <v>0.030706</v>
       </c>
       <c r="N7">
-        <v>1.889697</v>
+        <v>0.09211800000000001</v>
       </c>
       <c r="O7">
-        <v>0.1521462338815877</v>
+        <v>0.006934719624824425</v>
       </c>
       <c r="P7">
-        <v>0.1521462338815877</v>
+        <v>0.006934719624824427</v>
       </c>
       <c r="Q7">
-        <v>1.314217494206</v>
+        <v>0.04949611705133334</v>
       </c>
       <c r="R7">
-        <v>11.827957447854</v>
+        <v>0.445465053462</v>
       </c>
       <c r="S7">
-        <v>0.06850082731469233</v>
+        <v>0.001600492627215502</v>
       </c>
       <c r="T7">
-        <v>0.06850082731469233</v>
+        <v>0.001600492627215502</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -903,22 +903,22 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.3793803333333334</v>
+        <v>2.743651333333334</v>
       </c>
       <c r="H8">
-        <v>1.138141</v>
+        <v>8.230954000000001</v>
       </c>
       <c r="I8">
-        <v>0.08186779600497247</v>
+        <v>0.3928310486309039</v>
       </c>
       <c r="J8">
-        <v>0.08186779600497246</v>
+        <v>0.3928310486309038</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,27 +933,27 @@
         <v>10.530571</v>
       </c>
       <c r="O8">
-        <v>0.8478537661184122</v>
+        <v>0.7927501397588634</v>
       </c>
       <c r="P8">
-        <v>0.8478537661184122</v>
+        <v>0.7927501397588635</v>
       </c>
       <c r="Q8">
-        <v>1.331697178723445</v>
+        <v>9.630738388303779</v>
       </c>
       <c r="R8">
-        <v>11.985274608511</v>
+        <v>86.676645494734</v>
       </c>
       <c r="S8">
-        <v>0.06941191916662981</v>
+        <v>0.3114168687037699</v>
       </c>
       <c r="T8">
-        <v>0.06941191916662981</v>
+        <v>0.3114168687037699</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,52 +965,300 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.743651333333334</v>
+      </c>
+      <c r="H9">
+        <v>8.230954000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.3928310486309039</v>
+      </c>
+      <c r="J9">
+        <v>0.3928310486309038</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.8869683333333332</v>
+      </c>
+      <c r="N9">
+        <v>2.660905</v>
+      </c>
+      <c r="O9">
+        <v>0.2003151406163121</v>
+      </c>
+      <c r="P9">
+        <v>0.2003151406163121</v>
+      </c>
+      <c r="Q9">
+        <v>2.433531850374445</v>
+      </c>
+      <c r="R9">
+        <v>21.90178665337</v>
+      </c>
+      <c r="S9">
+        <v>0.07869000674495284</v>
+      </c>
+      <c r="T9">
+        <v>0.07869000674495284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.743651333333334</v>
+      </c>
+      <c r="H10">
+        <v>8.230954000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.3928310486309039</v>
+      </c>
+      <c r="J10">
+        <v>0.3928310486309038</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G9">
-        <v>0.3793803333333334</v>
-      </c>
-      <c r="H9">
-        <v>1.138141</v>
-      </c>
-      <c r="I9">
-        <v>0.08186779600497247</v>
-      </c>
-      <c r="J9">
-        <v>0.08186779600497246</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.629899</v>
-      </c>
-      <c r="N9">
-        <v>1.889697</v>
-      </c>
-      <c r="O9">
-        <v>0.1521462338815877</v>
-      </c>
-      <c r="P9">
-        <v>0.1521462338815877</v>
-      </c>
-      <c r="Q9">
-        <v>0.2389712925863333</v>
-      </c>
-      <c r="R9">
-        <v>2.150741633277</v>
-      </c>
-      <c r="S9">
-        <v>0.01245587683834265</v>
-      </c>
-      <c r="T9">
-        <v>0.01245587683834265</v>
+      <c r="M10">
+        <v>0.030706</v>
+      </c>
+      <c r="N10">
+        <v>0.09211800000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.006934719624824425</v>
+      </c>
+      <c r="P10">
+        <v>0.006934719624824427</v>
+      </c>
+      <c r="Q10">
+        <v>0.08424655784133335</v>
+      </c>
+      <c r="R10">
+        <v>0.7582190205720001</v>
+      </c>
+      <c r="S10">
+        <v>0.002724173182181087</v>
+      </c>
+      <c r="T10">
+        <v>0.002724173182181088</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.8991316666666668</v>
+      </c>
+      <c r="H11">
+        <v>2.697395</v>
+      </c>
+      <c r="I11">
+        <v>0.1287360500886965</v>
+      </c>
+      <c r="J11">
+        <v>0.1287360500886965</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3.510190333333334</v>
+      </c>
+      <c r="N11">
+        <v>10.530571</v>
+      </c>
+      <c r="O11">
+        <v>0.7927501397588634</v>
+      </c>
+      <c r="P11">
+        <v>0.7927501397588635</v>
+      </c>
+      <c r="Q11">
+        <v>3.156123284727223</v>
+      </c>
+      <c r="R11">
+        <v>28.405109562545</v>
+      </c>
+      <c r="S11">
+        <v>0.1020555216998182</v>
+      </c>
+      <c r="T11">
+        <v>0.1020555216998182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.8991316666666668</v>
+      </c>
+      <c r="H12">
+        <v>2.697395</v>
+      </c>
+      <c r="I12">
+        <v>0.1287360500886965</v>
+      </c>
+      <c r="J12">
+        <v>0.1287360500886965</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.8869683333333332</v>
+      </c>
+      <c r="N12">
+        <v>2.660905</v>
+      </c>
+      <c r="O12">
+        <v>0.2003151406163121</v>
+      </c>
+      <c r="P12">
+        <v>0.2003151406163121</v>
+      </c>
+      <c r="Q12">
+        <v>0.7975013158305556</v>
+      </c>
+      <c r="R12">
+        <v>7.177511842475</v>
+      </c>
+      <c r="S12">
+        <v>0.02578777997590584</v>
+      </c>
+      <c r="T12">
+        <v>0.02578777997590584</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.8991316666666668</v>
+      </c>
+      <c r="H13">
+        <v>2.697395</v>
+      </c>
+      <c r="I13">
+        <v>0.1287360500886965</v>
+      </c>
+      <c r="J13">
+        <v>0.1287360500886965</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.030706</v>
+      </c>
+      <c r="N13">
+        <v>0.09211800000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.006934719624824425</v>
+      </c>
+      <c r="P13">
+        <v>0.006934719624824427</v>
+      </c>
+      <c r="Q13">
+        <v>0.02760873695666667</v>
+      </c>
+      <c r="R13">
+        <v>0.24847863261</v>
+      </c>
+      <c r="S13">
+        <v>0.0008927484129724639</v>
+      </c>
+      <c r="T13">
+        <v>0.0008927484129724641</v>
       </c>
     </row>
   </sheetData>
